--- a/data/Dictionary.xlsx
+++ b/data/Dictionary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1513"/>
+  <dimension ref="A1:E1529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41289,6 +41289,438 @@
         </is>
       </c>
     </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="inlineStr">
+        <is>
+          <t>阿呆</t>
+        </is>
+      </c>
+      <c r="B1514" s="2" t="inlineStr">
+        <is>
+          <t>あほ</t>
+        </is>
+      </c>
+      <c r="C1514" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1514" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1514" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="inlineStr">
+        <is>
+          <t>散々</t>
+        </is>
+      </c>
+      <c r="B1515" s="2" t="inlineStr">
+        <is>
+          <t>さんざん</t>
+        </is>
+      </c>
+      <c r="C1515" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1515" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1515" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="inlineStr">
+        <is>
+          <t>暮/ら\す</t>
+        </is>
+      </c>
+      <c r="B1516" s="2" t="inlineStr">
+        <is>
+          <t>く/ら\す</t>
+        </is>
+      </c>
+      <c r="C1516" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1516" s="2" t="inlineStr">
+        <is>
+          <t>五段</t>
+        </is>
+      </c>
+      <c r="E1516" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="inlineStr">
+        <is>
+          <t>乾涸/び\る</t>
+        </is>
+      </c>
+      <c r="B1517" s="2" t="inlineStr">
+        <is>
+          <t>ひから/び\る</t>
+        </is>
+      </c>
+      <c r="C1517" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1517" s="2" t="inlineStr">
+        <is>
+          <t>上下</t>
+        </is>
+      </c>
+      <c r="E1517" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="inlineStr">
+        <is>
+          <t>解\る</t>
+        </is>
+      </c>
+      <c r="B1518" s="2" t="inlineStr">
+        <is>
+          <t>わか\る</t>
+        </is>
+      </c>
+      <c r="C1518" s="2" t="inlineStr">
+        <is>
+          <t>0\-1</t>
+        </is>
+      </c>
+      <c r="D1518" s="2" t="inlineStr">
+        <is>
+          <t>五段</t>
+        </is>
+      </c>
+      <c r="E1518" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="inlineStr">
+        <is>
+          <t>駄目</t>
+        </is>
+      </c>
+      <c r="B1519" s="2" t="inlineStr">
+        <is>
+          <t>だめ</t>
+        </is>
+      </c>
+      <c r="C1519" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1519" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1519" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="inlineStr">
+        <is>
+          <t>洗剤</t>
+        </is>
+      </c>
+      <c r="B1520" s="2" t="inlineStr">
+        <is>
+          <t>せんざい</t>
+        </is>
+      </c>
+      <c r="C1520" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1520" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1520" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="inlineStr">
+        <is>
+          <t>睫毛</t>
+        </is>
+      </c>
+      <c r="B1521" s="2" t="inlineStr">
+        <is>
+          <t>まつげ</t>
+        </is>
+      </c>
+      <c r="C1521" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1521" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1521" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="inlineStr">
+        <is>
+          <t>慣/れ\る</t>
+        </is>
+      </c>
+      <c r="B1522" s="2" t="inlineStr">
+        <is>
+          <t>な/れ\る</t>
+        </is>
+      </c>
+      <c r="C1522" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1522" s="2" t="inlineStr">
+        <is>
+          <t>上下</t>
+        </is>
+      </c>
+      <c r="E1522" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="inlineStr">
+        <is>
+          <t>浪人</t>
+        </is>
+      </c>
+      <c r="B1523" s="2" t="inlineStr">
+        <is>
+          <t>ろうにん</t>
+        </is>
+      </c>
+      <c r="C1523" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1523" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1523" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="inlineStr">
+        <is>
+          <t>苦労人</t>
+        </is>
+      </c>
+      <c r="B1524" s="2" t="inlineStr">
+        <is>
+          <t>くろうにん</t>
+        </is>
+      </c>
+      <c r="C1524" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1524" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1524" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="inlineStr">
+        <is>
+          <t>病人</t>
+        </is>
+      </c>
+      <c r="B1525" s="2" t="inlineStr">
+        <is>
+          <t>びょうにん</t>
+        </is>
+      </c>
+      <c r="C1525" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1525" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1525" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="inlineStr">
+        <is>
+          <t>扁桃体</t>
+        </is>
+      </c>
+      <c r="B1526" s="2" t="inlineStr">
+        <is>
+          <t>へんとうたい</t>
+        </is>
+      </c>
+      <c r="C1526" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1526" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1526" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="inlineStr">
+        <is>
+          <t>焦/げ\る</t>
+        </is>
+      </c>
+      <c r="B1527" s="2" t="inlineStr">
+        <is>
+          <t>こ/げ\る</t>
+        </is>
+      </c>
+      <c r="C1527" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1527" s="2" t="inlineStr">
+        <is>
+          <t>上下</t>
+        </is>
+      </c>
+      <c r="E1527" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="inlineStr">
+        <is>
+          <t>毎日</t>
+        </is>
+      </c>
+      <c r="B1528" s="2" t="inlineStr">
+        <is>
+          <t>まいにち</t>
+        </is>
+      </c>
+      <c r="C1528" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1528" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1528" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="inlineStr">
+        <is>
+          <t>等/し\い</t>
+        </is>
+      </c>
+      <c r="B1529" s="2" t="inlineStr">
+        <is>
+          <t>ひと/し\い</t>
+        </is>
+      </c>
+      <c r="C1529" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1529" s="2" t="inlineStr">
+        <is>
+          <t>形容</t>
+        </is>
+      </c>
+      <c r="E1529" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Dictionary.xlsx
+++ b/data/Dictionary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1529"/>
+  <dimension ref="A1:E1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41721,6 +41721,492 @@
         </is>
       </c>
     </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="inlineStr">
+        <is>
+          <t>花咲\く</t>
+        </is>
+      </c>
+      <c r="B1530" s="2" t="inlineStr">
+        <is>
+          <t>はなさ\く</t>
+        </is>
+      </c>
+      <c r="C1530" s="2" t="inlineStr">
+        <is>
+          <t>0\-1</t>
+        </is>
+      </c>
+      <c r="D1530" s="2" t="inlineStr">
+        <is>
+          <t>五段</t>
+        </is>
+      </c>
+      <c r="E1530" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="inlineStr">
+        <is>
+          <t>見送\る</t>
+        </is>
+      </c>
+      <c r="B1531" s="2" t="inlineStr">
+        <is>
+          <t>みおく\る</t>
+        </is>
+      </c>
+      <c r="C1531" s="2" t="inlineStr">
+        <is>
+          <t>0\-1</t>
+        </is>
+      </c>
+      <c r="D1531" s="2" t="inlineStr">
+        <is>
+          <t>五段</t>
+        </is>
+      </c>
+      <c r="E1531" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="inlineStr">
+        <is>
+          <t>死者</t>
+        </is>
+      </c>
+      <c r="B1532" s="2" t="inlineStr">
+        <is>
+          <t>ししゃ</t>
+        </is>
+      </c>
+      <c r="C1532" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1532" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1532" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="inlineStr">
+        <is>
+          <t>覚悟</t>
+        </is>
+      </c>
+      <c r="B1533" s="2" t="inlineStr">
+        <is>
+          <t>かくご</t>
+        </is>
+      </c>
+      <c r="C1533" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1533" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1533" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="inlineStr">
+        <is>
+          <t>自身</t>
+        </is>
+      </c>
+      <c r="B1534" s="2" t="inlineStr">
+        <is>
+          <t>じしん</t>
+        </is>
+      </c>
+      <c r="C1534" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1534" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1534" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="inlineStr">
+        <is>
+          <t>反\する</t>
+        </is>
+      </c>
+      <c r="B1535" s="2" t="inlineStr">
+        <is>
+          <t>はん\する</t>
+        </is>
+      </c>
+      <c r="C1535" s="2" t="inlineStr">
+        <is>
+          <t>0\-1</t>
+        </is>
+      </c>
+      <c r="D1535" s="2" t="inlineStr">
+        <is>
+          <t>サ行</t>
+        </is>
+      </c>
+      <c r="E1535" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="inlineStr">
+        <is>
+          <t>有害</t>
+        </is>
+      </c>
+      <c r="B1536" s="2" t="inlineStr">
+        <is>
+          <t>ゆうがい</t>
+        </is>
+      </c>
+      <c r="C1536" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1536" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1536" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="inlineStr">
+        <is>
+          <t>冷/え\る</t>
+        </is>
+      </c>
+      <c r="B1537" s="2" t="inlineStr">
+        <is>
+          <t>ひ/え\る</t>
+        </is>
+      </c>
+      <c r="C1537" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1537" s="2" t="inlineStr">
+        <is>
+          <t>上下</t>
+        </is>
+      </c>
+      <c r="E1537" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="inlineStr">
+        <is>
+          <t>執着</t>
+        </is>
+      </c>
+      <c r="B1538" s="2" t="inlineStr">
+        <is>
+          <t>しゅうちゃく</t>
+        </is>
+      </c>
+      <c r="C1538" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1538" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1538" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="inlineStr">
+        <is>
+          <t>諦念</t>
+        </is>
+      </c>
+      <c r="B1539" s="2" t="inlineStr">
+        <is>
+          <t>ていねん</t>
+        </is>
+      </c>
+      <c r="C1539" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1539" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1539" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="inlineStr">
+        <is>
+          <t>以上</t>
+        </is>
+      </c>
+      <c r="B1540" s="2" t="inlineStr">
+        <is>
+          <t>いじょう</t>
+        </is>
+      </c>
+      <c r="C1540" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1540" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1540" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="inlineStr">
+        <is>
+          <t>否定</t>
+        </is>
+      </c>
+      <c r="B1541" s="2" t="inlineStr">
+        <is>
+          <t>ひてい</t>
+        </is>
+      </c>
+      <c r="C1541" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1541" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1541" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="inlineStr">
+        <is>
+          <t>去\る</t>
+        </is>
+      </c>
+      <c r="B1542" s="2" t="inlineStr">
+        <is>
+          <t>さ\る</t>
+        </is>
+      </c>
+      <c r="C1542" s="2" t="inlineStr">
+        <is>
+          <t>0\-1</t>
+        </is>
+      </c>
+      <c r="D1542" s="2" t="inlineStr">
+        <is>
+          <t>五段</t>
+        </is>
+      </c>
+      <c r="E1542" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="inlineStr">
+        <is>
+          <t>愛情</t>
+        </is>
+      </c>
+      <c r="B1543" s="2" t="inlineStr">
+        <is>
+          <t>あいじょう</t>
+        </is>
+      </c>
+      <c r="C1543" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1543" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1543" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="inlineStr">
+        <is>
+          <t>哀</t>
+        </is>
+      </c>
+      <c r="B1544" s="2" t="inlineStr">
+        <is>
+          <t>あい</t>
+        </is>
+      </c>
+      <c r="C1544" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1544" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1544" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="inlineStr">
+        <is>
+          <t>体裁</t>
+        </is>
+      </c>
+      <c r="B1545" s="2" t="inlineStr">
+        <is>
+          <t>ていさい</t>
+        </is>
+      </c>
+      <c r="C1545" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1545" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1545" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="inlineStr">
+        <is>
+          <t>情/け</t>
+        </is>
+      </c>
+      <c r="B1546" s="2" t="inlineStr">
+        <is>
+          <t>なさ/け</t>
+        </is>
+      </c>
+      <c r="C1546" s="2" t="inlineStr">
+        <is>
+          <t>0/-1</t>
+        </is>
+      </c>
+      <c r="D1546" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1546" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="inlineStr">
+        <is>
+          <t>爆発</t>
+        </is>
+      </c>
+      <c r="B1547" s="2" t="inlineStr">
+        <is>
+          <t>ばくはつ</t>
+        </is>
+      </c>
+      <c r="C1547" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1547" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1547" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Dictionary.xlsx
+++ b/data/Dictionary.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1547"/>
+  <dimension ref="A1:E1599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42207,6 +42207,1410 @@
         </is>
       </c>
     </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="inlineStr">
+        <is>
+          <t>共振</t>
+        </is>
+      </c>
+      <c r="B1548" s="2" t="inlineStr">
+        <is>
+          <t>きょうしん</t>
+        </is>
+      </c>
+      <c r="C1548" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1548" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1548" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="inlineStr">
+        <is>
+          <t>罵倒</t>
+        </is>
+      </c>
+      <c r="B1549" s="2" t="inlineStr">
+        <is>
+          <t>ばとう</t>
+        </is>
+      </c>
+      <c r="C1549" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1549" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1549" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B1550" s="2" t="inlineStr">
+        <is>
+          <t>こうしん</t>
+        </is>
+      </c>
+      <c r="C1550" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1550" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1550" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="inlineStr">
+        <is>
+          <t>降\る</t>
+        </is>
+      </c>
+      <c r="B1551" s="2" t="inlineStr">
+        <is>
+          <t>ふ\る</t>
+        </is>
+      </c>
+      <c r="C1551" s="2" t="inlineStr">
+        <is>
+          <t>0\-1</t>
+        </is>
+      </c>
+      <c r="D1551" s="2" t="inlineStr">
+        <is>
+          <t>五段</t>
+        </is>
+      </c>
+      <c r="E1551" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="inlineStr">
+        <is>
+          <t>隕石</t>
+        </is>
+      </c>
+      <c r="B1552" s="2" t="inlineStr">
+        <is>
+          <t>いんせき</t>
+        </is>
+      </c>
+      <c r="C1552" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1552" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1552" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="inlineStr">
+        <is>
+          <t>抹消</t>
+        </is>
+      </c>
+      <c r="B1553" s="2" t="inlineStr">
+        <is>
+          <t>まっしょう</t>
+        </is>
+      </c>
+      <c r="C1553" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1553" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1553" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="inlineStr">
+        <is>
+          <t>可</t>
+        </is>
+      </c>
+      <c r="B1554" s="2" t="inlineStr">
+        <is>
+          <t>か</t>
+        </is>
+      </c>
+      <c r="C1554" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1554" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1554" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="inlineStr">
+        <is>
+          <t>派手</t>
+        </is>
+      </c>
+      <c r="B1555" s="2" t="inlineStr">
+        <is>
+          <t>はで</t>
+        </is>
+      </c>
+      <c r="C1555" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1555" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1555" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="inlineStr">
+        <is>
+          <t>常備</t>
+        </is>
+      </c>
+      <c r="B1556" s="2" t="inlineStr">
+        <is>
+          <t>じょうび</t>
+        </is>
+      </c>
+      <c r="C1556" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1556" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1556" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="inlineStr">
+        <is>
+          <t>薬</t>
+        </is>
+      </c>
+      <c r="B1557" s="2" t="inlineStr">
+        <is>
+          <t>くすり</t>
+        </is>
+      </c>
+      <c r="C1557" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1557" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1557" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="inlineStr">
+        <is>
+          <t>超酷/え</t>
+        </is>
+      </c>
+      <c r="B1558" s="2" t="inlineStr">
+        <is>
+          <t>ちょうひで/え</t>
+        </is>
+      </c>
+      <c r="C1558" s="2" t="inlineStr">
+        <is>
+          <t>0/-1</t>
+        </is>
+      </c>
+      <c r="D1558" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1558" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="inlineStr">
+        <is>
+          <t>暗号化</t>
+        </is>
+      </c>
+      <c r="B1559" s="2" t="inlineStr">
+        <is>
+          <t>あんごうか</t>
+        </is>
+      </c>
+      <c r="C1559" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1559" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1559" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="inlineStr">
+        <is>
+          <t>乱闘</t>
+        </is>
+      </c>
+      <c r="B1560" s="2" t="inlineStr">
+        <is>
+          <t>らんとう</t>
+        </is>
+      </c>
+      <c r="C1560" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1560" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1560" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="inlineStr">
+        <is>
+          <t>放置</t>
+        </is>
+      </c>
+      <c r="B1561" s="2" t="inlineStr">
+        <is>
+          <t>ほうち</t>
+        </is>
+      </c>
+      <c r="C1561" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1561" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1561" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="inlineStr">
+        <is>
+          <t>陰/キャ</t>
+        </is>
+      </c>
+      <c r="B1562" s="2" t="inlineStr">
+        <is>
+          <t>いん/キャ</t>
+        </is>
+      </c>
+      <c r="C1562" s="2" t="inlineStr">
+        <is>
+          <t>0/-1</t>
+        </is>
+      </c>
+      <c r="D1562" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1562" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="inlineStr">
+        <is>
+          <t>送信</t>
+        </is>
+      </c>
+      <c r="B1563" s="2" t="inlineStr">
+        <is>
+          <t>そうしん</t>
+        </is>
+      </c>
+      <c r="C1563" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1563" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1563" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="inlineStr">
+        <is>
+          <t>苦/し\い</t>
+        </is>
+      </c>
+      <c r="B1564" s="2" t="inlineStr">
+        <is>
+          <t>くる/し\い</t>
+        </is>
+      </c>
+      <c r="C1564" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1564" s="2" t="inlineStr">
+        <is>
+          <t>形容</t>
+        </is>
+      </c>
+      <c r="E1564" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="inlineStr">
+        <is>
+          <t>草</t>
+        </is>
+      </c>
+      <c r="B1565" s="2" t="inlineStr">
+        <is>
+          <t>くさ</t>
+        </is>
+      </c>
+      <c r="C1565" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1565" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1565" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="inlineStr">
+        <is>
+          <t>生/え\る</t>
+        </is>
+      </c>
+      <c r="B1566" s="2" t="inlineStr">
+        <is>
+          <t>は/え\る</t>
+        </is>
+      </c>
+      <c r="C1566" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1566" s="2" t="inlineStr">
+        <is>
+          <t>上下</t>
+        </is>
+      </c>
+      <c r="E1566" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="inlineStr">
+        <is>
+          <t>壊/れ\る</t>
+        </is>
+      </c>
+      <c r="B1567" s="2" t="inlineStr">
+        <is>
+          <t>こわ/れ\る</t>
+        </is>
+      </c>
+      <c r="C1567" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1567" s="2" t="inlineStr">
+        <is>
+          <t>上下</t>
+        </is>
+      </c>
+      <c r="E1567" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="inlineStr">
+        <is>
+          <t>近未来</t>
+        </is>
+      </c>
+      <c r="B1568" s="2" t="inlineStr">
+        <is>
+          <t>きんみらい</t>
+        </is>
+      </c>
+      <c r="C1568" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1568" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1568" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="inlineStr">
+        <is>
+          <t>現代</t>
+        </is>
+      </c>
+      <c r="B1569" s="2" t="inlineStr">
+        <is>
+          <t>げんだい</t>
+        </is>
+      </c>
+      <c r="C1569" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1569" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1569" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="inlineStr">
+        <is>
+          <t>加担</t>
+        </is>
+      </c>
+      <c r="B1570" s="2" t="inlineStr">
+        <is>
+          <t>かたん</t>
+        </is>
+      </c>
+      <c r="C1570" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1570" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1570" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="inlineStr">
+        <is>
+          <t>経費</t>
+        </is>
+      </c>
+      <c r="B1571" s="2" t="inlineStr">
+        <is>
+          <t>けいひ</t>
+        </is>
+      </c>
+      <c r="C1571" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1571" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1571" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="inlineStr">
+        <is>
+          <t>100分</t>
+        </is>
+      </c>
+      <c r="B1572" s="2" t="inlineStr">
+        <is>
+          <t>ひゃっぷん</t>
+        </is>
+      </c>
+      <c r="C1572" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1572" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1572" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="inlineStr">
+        <is>
+          <t>足湯付/き</t>
+        </is>
+      </c>
+      <c r="B1573" s="2" t="inlineStr">
+        <is>
+          <t>あしゆづ/き</t>
+        </is>
+      </c>
+      <c r="C1573" s="2" t="inlineStr">
+        <is>
+          <t>0/-1</t>
+        </is>
+      </c>
+      <c r="D1573" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1573" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="inlineStr">
+        <is>
+          <t>柚子</t>
+        </is>
+      </c>
+      <c r="B1574" s="2" t="inlineStr">
+        <is>
+          <t>ゆず</t>
+        </is>
+      </c>
+      <c r="C1574" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1574" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1574" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="inlineStr">
+        <is>
+          <t>本気</t>
+        </is>
+      </c>
+      <c r="B1575" s="2" t="inlineStr">
+        <is>
+          <t>ほんき</t>
+        </is>
+      </c>
+      <c r="C1575" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1575" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1575" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="inlineStr">
+        <is>
+          <t>後回/し</t>
+        </is>
+      </c>
+      <c r="B1576" s="2" t="inlineStr">
+        <is>
+          <t>あとまわ/し</t>
+        </is>
+      </c>
+      <c r="C1576" s="2" t="inlineStr">
+        <is>
+          <t>0/-1</t>
+        </is>
+      </c>
+      <c r="D1576" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1576" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="inlineStr">
+        <is>
+          <t>迷惑</t>
+        </is>
+      </c>
+      <c r="B1577" s="2" t="inlineStr">
+        <is>
+          <t>めいわく</t>
+        </is>
+      </c>
+      <c r="C1577" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1577" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1577" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="inlineStr">
+        <is>
+          <t>惹/かれ\る</t>
+        </is>
+      </c>
+      <c r="B1578" s="2" t="inlineStr">
+        <is>
+          <t>ひ/かれ\る</t>
+        </is>
+      </c>
+      <c r="C1578" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1578" s="2" t="inlineStr">
+        <is>
+          <t>上下</t>
+        </is>
+      </c>
+      <c r="E1578" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="inlineStr">
+        <is>
+          <t>狂信</t>
+        </is>
+      </c>
+      <c r="B1579" s="2" t="inlineStr">
+        <is>
+          <t>きょうしん</t>
+        </is>
+      </c>
+      <c r="C1579" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1579" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1579" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="inlineStr">
+        <is>
+          <t>常勤</t>
+        </is>
+      </c>
+      <c r="B1580" s="2" t="inlineStr">
+        <is>
+          <t>じょうきん</t>
+        </is>
+      </c>
+      <c r="C1580" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1580" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1580" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="inlineStr">
+        <is>
+          <t>臨時</t>
+        </is>
+      </c>
+      <c r="B1581" s="2" t="inlineStr">
+        <is>
+          <t>りんじ</t>
+        </is>
+      </c>
+      <c r="C1581" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1581" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1581" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="inlineStr">
+        <is>
+          <t>休業</t>
+        </is>
+      </c>
+      <c r="B1582" s="2" t="inlineStr">
+        <is>
+          <t>きゅうぎょう</t>
+        </is>
+      </c>
+      <c r="C1582" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1582" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1582" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="inlineStr">
+        <is>
+          <t>洗濯</t>
+        </is>
+      </c>
+      <c r="B1583" s="2" t="inlineStr">
+        <is>
+          <t>せんたく</t>
+        </is>
+      </c>
+      <c r="C1583" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1583" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1583" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="inlineStr">
+        <is>
+          <t>交換</t>
+        </is>
+      </c>
+      <c r="B1584" s="2" t="inlineStr">
+        <is>
+          <t>こうかん</t>
+        </is>
+      </c>
+      <c r="C1584" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1584" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1584" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="inlineStr">
+        <is>
+          <t>借金</t>
+        </is>
+      </c>
+      <c r="B1585" s="2" t="inlineStr">
+        <is>
+          <t>しゃっきん</t>
+        </is>
+      </c>
+      <c r="C1585" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1585" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1585" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="inlineStr">
+        <is>
+          <t>温泉</t>
+        </is>
+      </c>
+      <c r="B1586" s="2" t="inlineStr">
+        <is>
+          <t>おんせん</t>
+        </is>
+      </c>
+      <c r="C1586" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1586" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1586" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="inlineStr">
+        <is>
+          <t>旅行</t>
+        </is>
+      </c>
+      <c r="B1587" s="2" t="inlineStr">
+        <is>
+          <t>りょこう</t>
+        </is>
+      </c>
+      <c r="C1587" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1587" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1587" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="inlineStr">
+        <is>
+          <t>三泊</t>
+        </is>
+      </c>
+      <c r="B1588" s="2" t="inlineStr">
+        <is>
+          <t>さんぱく</t>
+        </is>
+      </c>
+      <c r="C1588" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1588" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1588" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="inlineStr">
+        <is>
+          <t>四日</t>
+        </is>
+      </c>
+      <c r="B1589" s="2" t="inlineStr">
+        <is>
+          <t>よっか</t>
+        </is>
+      </c>
+      <c r="C1589" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1589" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1589" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="inlineStr">
+        <is>
+          <t>食事付/き</t>
+        </is>
+      </c>
+      <c r="B1590" s="2" t="inlineStr">
+        <is>
+          <t>しょくじづ/き</t>
+        </is>
+      </c>
+      <c r="C1590" s="2" t="inlineStr">
+        <is>
+          <t>0/-1</t>
+        </is>
+      </c>
+      <c r="D1590" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1590" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="inlineStr">
+        <is>
+          <t>共感性</t>
+        </is>
+      </c>
+      <c r="B1591" s="2" t="inlineStr">
+        <is>
+          <t>きょうかんせい</t>
+        </is>
+      </c>
+      <c r="C1591" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1591" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1591" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="inlineStr">
+        <is>
+          <t>羞恥</t>
+        </is>
+      </c>
+      <c r="B1592" s="2" t="inlineStr">
+        <is>
+          <t>しゅうち</t>
+        </is>
+      </c>
+      <c r="C1592" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1592" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1592" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="inlineStr">
+        <is>
+          <t>鬱</t>
+        </is>
+      </c>
+      <c r="B1593" s="2" t="inlineStr">
+        <is>
+          <t>うつ</t>
+        </is>
+      </c>
+      <c r="C1593" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1593" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1593" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="inlineStr">
+        <is>
+          <t>躁</t>
+        </is>
+      </c>
+      <c r="B1594" s="2" t="inlineStr">
+        <is>
+          <t>そう</t>
+        </is>
+      </c>
+      <c r="C1594" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1594" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1594" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="inlineStr">
+        <is>
+          <t>忙/し\い</t>
+        </is>
+      </c>
+      <c r="B1595" s="2" t="inlineStr">
+        <is>
+          <t>いそが/し\い</t>
+        </is>
+      </c>
+      <c r="C1595" s="2" t="inlineStr">
+        <is>
+          <t>0/-1\-1</t>
+        </is>
+      </c>
+      <c r="D1595" s="2" t="inlineStr">
+        <is>
+          <t>形容</t>
+        </is>
+      </c>
+      <c r="E1595" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="inlineStr">
+        <is>
+          <t>殴\る</t>
+        </is>
+      </c>
+      <c r="B1596" s="2" t="inlineStr">
+        <is>
+          <t>なぐ\る</t>
+        </is>
+      </c>
+      <c r="C1596" s="2" t="inlineStr">
+        <is>
+          <t>0\-1</t>
+        </is>
+      </c>
+      <c r="D1596" s="2" t="inlineStr">
+        <is>
+          <t>五段</t>
+        </is>
+      </c>
+      <c r="E1596" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="inlineStr">
+        <is>
+          <t>気絶</t>
+        </is>
+      </c>
+      <c r="B1597" s="2" t="inlineStr">
+        <is>
+          <t>きぜつ</t>
+        </is>
+      </c>
+      <c r="C1597" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1597" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1597" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="inlineStr">
+        <is>
+          <t>界隈</t>
+        </is>
+      </c>
+      <c r="B1598" s="2" t="inlineStr">
+        <is>
+          <t>かいわい</t>
+        </is>
+      </c>
+      <c r="C1598" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1598" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1598" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="inlineStr">
+        <is>
+          <t>空回/り</t>
+        </is>
+      </c>
+      <c r="B1599" s="2" t="inlineStr">
+        <is>
+          <t>からまわ/り</t>
+        </is>
+      </c>
+      <c r="C1599" s="2" t="inlineStr">
+        <is>
+          <t>0/-1</t>
+        </is>
+      </c>
+      <c r="D1599" s="2" t="inlineStr">
+        <is>
+          <t>名詞</t>
+        </is>
+      </c>
+      <c r="E1599" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
